--- a/Datasheets/DataForm_USPAI_Test+Calibration.xlsx
+++ b/Datasheets/DataForm_USPAI_Test+Calibration.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$25:$25</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Notes</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Pre-survey checklist:</t>
   </si>
   <si>
-    <t>Departure airport:</t>
-  </si>
-  <si>
     <t>Take off (UTC):</t>
   </si>
   <si>
-    <t>Engine on (UTC):</t>
-  </si>
-  <si>
-    <t>Landing airport:</t>
-  </si>
-  <si>
-    <t>Landing (UTC):</t>
-  </si>
-  <si>
     <t>Engine off (UTC):</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
   </si>
   <si>
     <t>Pilot in Charge:</t>
-  </si>
-  <si>
-    <t>Other NASA Team/Obs:</t>
   </si>
   <si>
     <t>KAMERA Operator:</t>
@@ -240,6 +225,12 @@
   </si>
   <si>
     <t>USPAI: Test/Calibration Flights @ Crow's Landing</t>
+  </si>
+  <si>
+    <t>Departure/landing airport:</t>
+  </si>
+  <si>
+    <t>GCS Operator:</t>
   </si>
 </sst>
 </file>
@@ -540,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,9 +581,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -627,12 +615,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1084,23 +1071,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="87" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="19" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" customWidth="1"/>
@@ -1114,411 +1101,415 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="23"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="51" t="s">
-        <v>43</v>
+      <c r="L1" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="49"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="47"/>
+      <c r="Q1" s="44"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="O2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="O2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="32" t="s">
-        <v>20</v>
+      <c r="L3" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="7"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="A4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="11" t="s">
-        <v>21</v>
+      <c r="L4" t="s">
+        <v>41</v>
       </c>
       <c r="M4" s="11"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="7"/>
       <c r="L5" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M5" s="11"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" s="19" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" s="20" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="H8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="N11" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="B12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="N12" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="B13" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
+      <c r="N13" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="B14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="N14" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="B15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="N15" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="B16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="N16" s="47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="B17" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="N17" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="B18" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="35"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="42"/>
+      <c r="B19" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="39"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1527,19 +1518,19 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="22"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" s="19" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1556,430 +1547,406 @@
     </row>
     <row r="21" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="41"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="52" t="s">
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
+    </row>
+    <row r="25" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="55"/>
     </row>
     <row r="26" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
     </row>
     <row r="27" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
     </row>
     <row r="28" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
     </row>
     <row r="29" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
     </row>
     <row r="30" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="58"/>
     </row>
     <row r="31" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
     </row>
     <row r="32" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="58"/>
     </row>
     <row r="33" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="58"/>
     </row>
     <row r="34" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="58"/>
     </row>
     <row r="35" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="58"/>
     </row>
     <row r="36" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="58"/>
     </row>
     <row r="37" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="58"/>
     </row>
     <row r="38" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-    </row>
-    <row r="39" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C34:R34"/>
     <mergeCell ref="C35:R35"/>
     <mergeCell ref="C36:R36"/>
     <mergeCell ref="C37:R37"/>
     <mergeCell ref="C38:R38"/>
-    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="C29:R29"/>
     <mergeCell ref="C30:R30"/>
     <mergeCell ref="C31:R31"/>
     <mergeCell ref="C32:R32"/>
     <mergeCell ref="C33:R33"/>
-    <mergeCell ref="C34:R34"/>
+    <mergeCell ref="C24:R24"/>
     <mergeCell ref="C25:R25"/>
     <mergeCell ref="C26:R26"/>
     <mergeCell ref="C27:R27"/>
     <mergeCell ref="C28:R28"/>
-    <mergeCell ref="C29:R29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
